--- a/documents/Published/Linear Gauge/LinearGaugeByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Linear Gauge/LinearGaugeByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git1\documents\Published\Linear Gauge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358673F-1F3B-4799-A1D1-39E0D0C70706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75954BD1-A3C8-4AE3-A47B-C83976605D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0699E701-317F-4C2D-BB4C-A0FCB3058AE2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>S no</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>Linear Gauge Chart</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Edge</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -648,6 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -672,6 +679,2735 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5610225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3571875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBB84E2-AE98-42B6-89CD-2EBFFE1F58B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401673" y="13849349"/>
+          <a:ext cx="5581652" cy="3524251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5688541</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5410200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3543300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425E890A-61F1-4026-B220-59B7B9D1004C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19061641" y="13811249"/>
+          <a:ext cx="5417609" cy="3533776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3886199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51858</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3276600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BF0CF9-8BD9-4408-905E-6DF0CE813647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13363574" y="45272325"/>
+          <a:ext cx="5757334" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32807</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3419474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5391150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3AA1B2-977E-49FC-92F6-F4797A6587DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19101857" y="45215174"/>
+          <a:ext cx="5358343" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24341</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3286125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51857</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3190875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3186DA9A-4F40-4993-A1FF-D19F7EE4E171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13397441" y="48520350"/>
+          <a:ext cx="5723466" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3124200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76C4C94-FD09-4CB9-B859-69437C897E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19100800" y="48615600"/>
+          <a:ext cx="5435600" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5610225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2295525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8F3E6A-1010-4B8C-B57B-0AE3D32BBDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13382625" y="55206901"/>
+          <a:ext cx="5600700" cy="2266949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5692775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2343150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5992C47-BC2C-48C1-B930-515CB4EDD5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19065875" y="55283100"/>
+          <a:ext cx="5232400" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2295525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5591175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B9D209-ED89-438E-A7BC-6709710075A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449301" y="57473850"/>
+          <a:ext cx="5514974" cy="2909292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5410199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B1A249-A702-4B1A-A27A-D1B64DDFE0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19093390" y="57559575"/>
+          <a:ext cx="5385859" cy="2927747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29632</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5105400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5534025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32959BDA-C804-4EAB-82D4-F7F109589A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13402732" y="65484375"/>
+          <a:ext cx="5504393" cy="3096221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5181600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2909888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B86894-B82A-4B9E-8CBB-CF4C00E861CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19111382" y="65598675"/>
+          <a:ext cx="5139268" cy="2890838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234952</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5467350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3181350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228E31F6-DDDD-486B-9C48-70BE3FC0F2B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13608052" y="99202876"/>
+          <a:ext cx="5232398" cy="2943224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169332</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3AA637-4342-46E7-86A3-080A6A7031EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19173824" y="99012374"/>
+          <a:ext cx="5503333" cy="3343276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428790</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>504826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4562475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2574964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33C4466-BBC9-474C-AB89-F25E766D6BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13801890" y="695326"/>
+          <a:ext cx="4133685" cy="2070138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>352426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4688668</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2600326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEA570A-12DF-407C-8183-07A9678CFF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19269076" y="542926"/>
+          <a:ext cx="4488642" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4235374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2009775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EFE68A-F295-4124-A4C2-A9720E715720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13744576" y="4200525"/>
+          <a:ext cx="3863898" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4552950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2086648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB845558-81E2-457D-B754-EA9262D00E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19802475" y="4295775"/>
+          <a:ext cx="3819525" cy="1581823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>371476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4248439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1990726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A31C18-808C-43FB-A878-DF46C25F111F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13725525" y="7229476"/>
+          <a:ext cx="3896014" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4581814</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2038350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228CE053-148E-4658-B444-8907F50C1AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19754850" y="7277100"/>
+          <a:ext cx="3896014" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4883591</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2276475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC88C94-EF66-483C-A31E-31298191BF97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582650" y="10687050"/>
+          <a:ext cx="4674041" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5064566</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08922CF-8FCE-43BF-92C2-6368A2ADBC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19459575" y="10601325"/>
+          <a:ext cx="4674041" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394601</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5134155</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2724151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A41600B-A07E-45A2-BA9D-CDA8172E7D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13767701" y="17897476"/>
+          <a:ext cx="4739554" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4958412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2809875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB4C433-25A3-4A49-A771-39AEBA955F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19307175" y="17897475"/>
+          <a:ext cx="4720287" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90969</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5611060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3086100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BF1A37-E0D5-43C0-A897-BCCD08DEBFAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13464069" y="21850350"/>
+          <a:ext cx="5520091" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5141450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2895600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC2C5E9-2DA1-4A2A-9E18-18652CE43F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19440526" y="22031325"/>
+          <a:ext cx="4769974" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4481465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2200275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510FC086-0389-4BEC-BB5D-6F1E9EA7DF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="25374600"/>
+          <a:ext cx="4138565" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4419600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2271137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72889804-E7A9-40A3-9823-D241D622A890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19497675" y="25517475"/>
+          <a:ext cx="3990975" cy="1947287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>561974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4794767</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2886477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4254FB9B-E638-40D6-A8CD-D68AF1B1D8A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="28803599"/>
+          <a:ext cx="4794767" cy="2324503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>523874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4787599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2734077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAA14BF-FD1B-47F1-8632-6FD3D6BA1DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19297650" y="28765499"/>
+          <a:ext cx="4558999" cy="2210203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4524375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2399762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216B1806-0297-4A51-A929-CECAAD0FCC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13696950" y="31937325"/>
+          <a:ext cx="4200525" cy="2066387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4696649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2432967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B07382-D142-46C6-9CDD-15E80B289289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19497675" y="31937325"/>
+          <a:ext cx="4268024" cy="2099592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4781550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2745804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F83070E-96A1-4938-A69D-12414D76268D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13765925" y="35471100"/>
+          <a:ext cx="4388725" cy="2183829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4636375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2698179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5216B92-4054-4B1D-A513-6E983BFACB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19316700" y="35423475"/>
+          <a:ext cx="4388725" cy="2183829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357412</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5411026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2819400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C56FCE-550D-4726-AAE0-C631C93C7602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13730512" y="38785800"/>
+          <a:ext cx="5053614" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5048250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2660420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F33AD4-C059-4505-B795-4D96D97B99D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421475" y="38804850"/>
+          <a:ext cx="4695825" cy="2336570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4829175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2550044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1D3A4C-8ACA-49AC-9B2A-C4A17C66266C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="42110025"/>
+          <a:ext cx="4514850" cy="2235719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5257800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2445269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39CD02A-8BA3-4D04-915A-ABD9D0D70203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19812000" y="42005250"/>
+          <a:ext cx="4514850" cy="2235719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5268159</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2486025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD9B828-05FB-489B-B44B-9AB5B48A1EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13596800" y="52035075"/>
+          <a:ext cx="5044459" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5368309</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2647950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A542961-B62A-4BAD-9EA7-793B022C7816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392900" y="52197000"/>
+          <a:ext cx="5044459" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>619126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5162551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1793115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106DD643-3939-4834-B4D2-C5C5E5F16A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13807195" y="60998101"/>
+          <a:ext cx="4728456" cy="1173989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4938006</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1688339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F4307F-07AF-4F1D-8C1E-C7CA21B990F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19278600" y="60893325"/>
+          <a:ext cx="4728456" cy="1173989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221903</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5694015</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2162175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18186AC4-1928-4CF8-974E-87753172DBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13595003" y="69446775"/>
+          <a:ext cx="5472112" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>800101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30103</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2038351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8298EBD1-A17C-4EE2-B423-0A75A1A9E354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19148726" y="69342001"/>
+          <a:ext cx="5389202" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220604</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5302240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1962150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1291A-4FD5-4D64-A7BB-23F7D17C89A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13593704" y="72561450"/>
+          <a:ext cx="5081636" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5028153</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2038350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E48CE9-3598-4558-8F1A-E1D460FFA590}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19316701" y="72713850"/>
+          <a:ext cx="4780502" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731589</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5149857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87513D76-A4A4-4CA1-8C60-B5D7F8545838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14104689" y="76019025"/>
+          <a:ext cx="4418268" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4999293</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01C7314-912E-4852-B89C-084336A769CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19650075" y="75809475"/>
+          <a:ext cx="4418268" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351916</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4602113</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1800225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5D6A1A-02CC-492B-9565-48A4187EF5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19420966" y="79314675"/>
+          <a:ext cx="4250197" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4907422</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFA5D20-9BDC-4D26-8F2A-6BDD55C13FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14030325" y="79095600"/>
+          <a:ext cx="4250197" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391141</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>828676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5353051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2026230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B548B5-939F-467D-99A2-C4DBA6ABEEA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13764241" y="82829401"/>
+          <a:ext cx="4961910" cy="1197554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4257675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1875642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B494936B-D4E7-428F-9103-7F5301C7640A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19107150" y="82857975"/>
+          <a:ext cx="4219575" cy="1018392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423430</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5573653</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2076450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEE780B-04AA-4D27-A0D7-F679054E92E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13796530" y="86344125"/>
+          <a:ext cx="5150223" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5676900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5131173</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1866900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A94B948-8B23-49A9-A17C-086D1479F2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050000" y="86134575"/>
+          <a:ext cx="5150223" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5388348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4E1694-432E-4575-84C2-E2BADD9F4CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611225" y="89382600"/>
+          <a:ext cx="5150223" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5150223</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2455F5-6DE3-4C7B-9E56-580BDD5ED9D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19069050" y="88887300"/>
+          <a:ext cx="5150223" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297226</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5025587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2647950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A89CB3-F52C-4545-97CB-D36534FAFF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13670326" y="92973525"/>
+          <a:ext cx="4728361" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5195086</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D53977A-134A-4C63-BFAC-3A5B26F28066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19535775" y="92859225"/>
+          <a:ext cx="4728361" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661510</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4725452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2171701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8A967C-B861-442A-BD47-B12E9F0984FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14034610" y="96183451"/>
+          <a:ext cx="4063942" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431813</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5135027</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2228851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD810F00-BC85-4DC4-A9C1-54FF7095A93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19500863" y="95973901"/>
+          <a:ext cx="4703214" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,10 +3707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D00286-5FAE-4E81-8436-5E389963610F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +3720,12 @@
     <col min="3" max="3" width="44" style="6" customWidth="1"/>
     <col min="4" max="4" width="53" style="6" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="85.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1003,8 +3741,14 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1021,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1038,7 +3782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1055,7 +3799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1072,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1089,7 +3833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="313.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1106,11 +3850,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1123,9 +3867,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:7" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="8" t="s">
         <v>91</v>
       </c>
@@ -1136,11 +3880,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:7" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1153,9 +3897,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:7" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="8" t="s">
         <v>93</v>
       </c>
@@ -1166,7 +3910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="281.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1183,11 +3927,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:7" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1200,9 +3944,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:7" ht="270.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="8" t="s">
         <v>66</v>
       </c>
@@ -1213,7 +3957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="261" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1230,7 +3974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1247,11 +3991,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:5" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1264,9 +4008,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="8" t="s">
         <v>80</v>
       </c>
@@ -1277,9 +4021,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="8" t="s">
         <v>113</v>
       </c>
@@ -1290,7 +4034,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1307,7 +4051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1324,7 +4068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1341,7 +4085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1358,7 +4102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1375,7 +4119,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1392,7 +4136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1409,7 +4153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1426,7 +4170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1443,7 +4187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -1460,7 +4204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>23</v>
       </c>
@@ -1489,6 +4233,7 @@
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
